--- a/ofc/estimates/lakilla mandir/2 weeks ago/1.estimate changed.xlsx
+++ b/ofc/estimates/lakilla mandir/2 weeks ago/1.estimate changed.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\lakilla mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\estimates\lakilla mandir\2 weeks ago\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WCR" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -493,11 +493,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -760,7 +760,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -770,7 +770,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,7 +792,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,7 +808,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,7 +817,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +826,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +845,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -926,7 +926,7 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -956,6 +956,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,24 +1012,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1022,25 +1041,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1526,107 +1526,107 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="88" t="e">
+      <c r="C6" s="90" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1634,13 +1634,13 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="88" t="e">
+      <c r="J6" s="90" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="89"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="91"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
@@ -1649,75 +1649,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="e">
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="I8" s="85" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="I8" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="86" t="e">
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="I9" s="85" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="I9" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87" t="s">
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="81" t="s">
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1736,10 +1736,10 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="36" t="e">
         <f>#REF!</f>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="36"/>
       <c r="C15" s="14"/>
@@ -1820,7 +1820,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="14"/>
@@ -1876,7 +1876,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1902,13 +1902,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1921,6 +1914,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,101 +1942,101 @@
       <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
@@ -2046,31 +2046,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>42</v>
@@ -2149,7 +2149,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -2212,7 +2212,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>42</v>
@@ -2254,7 +2254,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>44</v>
@@ -2279,7 +2279,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>43</v>
@@ -2304,7 +2304,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>65</v>
@@ -2328,7 +2328,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>90</v>
@@ -2354,7 +2354,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>91</v>
@@ -2380,7 +2380,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>92</v>
@@ -2406,7 +2406,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>38</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>52</v>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="27"/>
@@ -2470,7 +2470,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>79</v>
@@ -2517,7 +2517,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>38</v>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>52</v>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="27"/>
@@ -2581,7 +2581,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>3</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
         <v>79</v>
@@ -2628,7 +2628,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>38</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>52</v>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="27"/>
@@ -2692,7 +2692,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>3</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>79</v>
@@ -2739,7 +2739,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -2803,7 +2803,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>3</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -2850,7 +2850,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="27"/>
@@ -2914,7 +2914,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>3</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -2961,7 +2961,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -3025,7 +3025,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>3</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -3072,7 +3072,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -3136,7 +3136,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>3</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -3183,7 +3183,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>38</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>52</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="30"/>
       <c r="C59" s="27"/>
@@ -3247,7 +3247,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>3</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>79</v>
@@ -3294,7 +3294,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>38</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>52</v>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27"/>
@@ -3358,7 +3358,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>3</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>79</v>
@@ -3405,7 +3405,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>38</v>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>52</v>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -3469,7 +3469,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="64">
         <v>3</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>79</v>
@@ -3516,7 +3516,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>38</v>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>52</v>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="30"/>
       <c r="C74" s="27"/>
@@ -3580,7 +3580,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>3</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>54</v>
@@ -3628,7 +3628,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>38</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>52</v>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="45"/>
       <c r="C79" s="46"/>
@@ -3684,7 +3684,7 @@
       <c r="J79" s="40"/>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="43">
         <v>4</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>54</v>
@@ -3726,7 +3726,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>55</v>
@@ -3751,7 +3751,7 @@
       <c r="J82" s="44"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>38</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>52</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45"/>
       <c r="C85" s="46"/>
@@ -3807,7 +3807,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <v>5</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>54</v>
@@ -3849,7 +3849,7 @@
       <c r="J87" s="44"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>38</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>52</v>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45"/>
       <c r="C90" s="46"/>
@@ -3905,7 +3905,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="58">
         <v>6</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="str">
         <f>B82</f>
@@ -3949,7 +3949,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>38</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>52</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45"/>
       <c r="C95" s="46"/>
@@ -4006,7 +4006,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="58">
         <v>7</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45" t="s">
         <v>60</v>
@@ -4049,7 +4049,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>61</v>
@@ -4073,7 +4073,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46">
@@ -4095,7 +4095,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46">
@@ -4118,7 +4118,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45"/>
       <c r="C101" s="46">
@@ -4140,7 +4140,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>76</v>
@@ -4166,7 +4166,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="45" t="s">
         <v>77</v>
@@ -4192,7 +4192,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45"/>
       <c r="C104" s="46">
@@ -4216,7 +4216,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -4272,7 +4272,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="43">
         <v>8</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>63</v>
@@ -4312,7 +4312,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>38</v>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="45" t="s">
         <v>52</v>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46"/>
@@ -4368,7 +4368,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <v>9</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>63</v>
@@ -4408,7 +4408,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>38</v>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>52</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -4464,7 +4464,7 @@
       <c r="J117" s="40"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
         <v>10</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="J118" s="40"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="56" t="s">
         <v>67</v>
@@ -4509,7 +4509,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="56"/>
       <c r="C120" s="53">
@@ -4534,7 +4534,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="56" t="s">
         <v>68</v>
@@ -4561,7 +4561,7 @@
       <c r="J121" s="40"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="56"/>
       <c r="C122" s="53">
@@ -4587,7 +4587,7 @@
       <c r="J122" s="40"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="56" t="s">
         <v>38</v>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="56" t="s">
         <v>52</v>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="56"/>
       <c r="C125" s="53"/>
@@ -4644,7 +4644,7 @@
       <c r="J125" s="61"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <v>11</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="K126" s="5"/>
       <c r="M126" s="63"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="56" t="s">
         <v>70</v>
@@ -4688,7 +4688,7 @@
       <c r="J127" s="40"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="56" t="s">
         <v>38</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="56" t="s">
         <v>52</v>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="52"/>
       <c r="C130" s="53"/>
@@ -4746,7 +4746,7 @@
       <c r="K130" s="5"/>
       <c r="M130" s="63"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <v>12</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="56" t="s">
         <v>70</v>
@@ -4789,7 +4789,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>38</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="62"/>
       <c r="C134" s="53"/>
@@ -4828,7 +4828,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <v>13</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>72</v>
@@ -4871,7 +4871,7 @@
       <c r="J136" s="40"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="56" t="s">
         <v>38</v>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="62"/>
       <c r="C138" s="53"/>
@@ -4910,7 +4910,7 @@
       <c r="J138" s="40"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <v>14</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>74</v>
@@ -4953,7 +4953,7 @@
       <c r="J140" s="40"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="70" t="s">
         <v>96</v>
@@ -4978,7 +4978,7 @@
       <c r="J141" s="40"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="56" t="s">
         <v>38</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="56" t="s">
         <v>52</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="56"/>
       <c r="C144" s="53"/>
@@ -5036,7 +5036,7 @@
       <c r="K144" s="5"/>
       <c r="M144" s="63"/>
     </row>
-    <row r="145" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="65">
         <v>15</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="K145" s="5"/>
       <c r="M145" s="63"/>
     </row>
-    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="65"/>
       <c r="B146" s="70" t="s">
         <v>94</v>
@@ -5080,7 +5080,7 @@
       <c r="J146" s="69"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="65"/>
       <c r="B147" s="70" t="s">
         <v>95</v>
@@ -5106,7 +5106,7 @@
       <c r="J147" s="69"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="65"/>
       <c r="B148" s="70" t="s">
         <v>38</v>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="65"/>
       <c r="B149" s="70" t="s">
         <v>52</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="65"/>
       <c r="B150" s="74"/>
       <c r="C150" s="67"/>
@@ -5164,7 +5164,7 @@
       <c r="K150" s="5"/>
       <c r="M150" s="63"/>
     </row>
-    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="65">
         <v>16</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="K151" s="5"/>
       <c r="M151" s="63"/>
     </row>
-    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="65"/>
       <c r="B152" s="70" t="str">
         <f t="shared" ref="B152:E153" si="12">B146</f>
@@ -5210,7 +5210,7 @@
       <c r="J152" s="69"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="65"/>
       <c r="B153" s="70" t="str">
         <f t="shared" si="12"/>
@@ -5238,7 +5238,7 @@
       <c r="J153" s="69"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="65"/>
       <c r="B154" s="70" t="s">
         <v>38</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="65"/>
       <c r="B155" s="70" t="s">
         <v>52</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="52"/>
       <c r="C156" s="53"/>
@@ -5296,7 +5296,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="56"/>
       <c r="C157" s="53"/>
@@ -5310,7 +5310,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="56"/>
       <c r="C158" s="53"/>
@@ -5324,7 +5324,7 @@
       <c r="K158" s="5"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="56"/>
       <c r="C159" s="53"/>
@@ -5338,7 +5338,7 @@
       <c r="K159" s="5"/>
       <c r="M159" s="63"/>
     </row>
-    <row r="160" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="26">
         <v>15</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="R160" s="31"/>
       <c r="S160" s="31"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="45"/>
       <c r="C161" s="46"/>
@@ -5387,7 +5387,7 @@
       <c r="J161" s="44"/>
       <c r="K161" s="16"/>
     </row>
-    <row r="162" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
         <v>16</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="18"/>
     </row>
-    <row r="163" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="30"/>
       <c r="C163" s="27"/>
@@ -5445,7 +5445,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="50" t="s">
         <v>15</v>
@@ -5463,15 +5463,15 @@
       </c>
       <c r="K164" s="16"/>
     </row>
-    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="95">
+      <c r="C166" s="104">
         <f>J164</f>
         <v>637771.83239571028</v>
       </c>
-      <c r="D166" s="96"/>
+      <c r="D166" s="105"/>
       <c r="E166" s="14">
         <v>100</v>
       </c>
@@ -5482,66 +5482,66 @@
       <c r="J166" s="21"/>
       <c r="K166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C167" s="102">
+      <c r="C167" s="111">
         <v>1000000</v>
       </c>
-      <c r="D167" s="103"/>
+      <c r="D167" s="112"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="102">
+      <c r="C168" s="111">
         <f>C167-C170-C171</f>
         <v>950000</v>
       </c>
-      <c r="D168" s="103"/>
+      <c r="D168" s="112"/>
       <c r="E168" s="14">
         <f>C168/C166*100</f>
         <v>148.95609240556195</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="94">
+      <c r="C169" s="103">
         <f>C166-C168</f>
         <v>-312228.16760428972</v>
       </c>
-      <c r="D169" s="94"/>
+      <c r="D169" s="103"/>
       <c r="E169" s="14">
         <f>100-E168</f>
         <v>-48.956092405561947</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B170" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C170" s="95">
+      <c r="C170" s="104">
         <f>C167*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D170" s="96"/>
+      <c r="D170" s="105"/>
       <c r="E170" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B171" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="95">
+      <c r="C171" s="104">
         <f>C167*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D171" s="96"/>
+      <c r="D171" s="105"/>
       <c r="E171" s="14">
         <v>2</v>
       </c>
@@ -5583,101 +5583,101 @@
       <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>115</v>
       </c>
@@ -5687,31 +5687,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>99</v>
@@ -5790,7 +5790,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -5853,7 +5853,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>100</v>
@@ -5895,7 +5895,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46">
@@ -5918,7 +5918,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>101</v>
@@ -5943,7 +5943,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45"/>
       <c r="C18" s="46">
@@ -5967,7 +5967,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>103</v>
@@ -5994,7 +5994,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>44</v>
@@ -6020,7 +6020,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>43</v>
@@ -6046,7 +6046,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>65</v>
@@ -6071,7 +6071,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>90</v>
@@ -6097,7 +6097,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="45" t="s">
         <v>91</v>
@@ -6123,7 +6123,7 @@
       <c r="J24" s="44"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
         <v>92</v>
@@ -6149,7 +6149,7 @@
       <c r="J25" s="44"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>109</v>
@@ -6174,7 +6174,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>110</v>
@@ -6198,7 +6198,7 @@
       <c r="J27" s="44"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>38</v>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>52</v>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45"/>
       <c r="C30" s="46"/>
@@ -6255,7 +6255,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>3</v>
       </c>
@@ -6272,7 +6272,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>65</v>
@@ -6300,7 +6300,7 @@
       <c r="J32" s="44"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45"/>
       <c r="C33" s="46">
@@ -6325,7 +6325,7 @@
       <c r="J33" s="44"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="45" t="s">
         <v>38</v>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="45" t="s">
         <v>52</v>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="30"/>
       <c r="C36" s="27"/>
@@ -6388,7 +6388,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>4</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>79</v>
@@ -6435,7 +6435,7 @@
       <c r="J38" s="44"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>38</v>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="45" t="s">
         <v>52</v>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="30"/>
       <c r="C41" s="27"/>
@@ -6499,7 +6499,7 @@
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>5</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="31"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>79</v>
@@ -6546,7 +6546,7 @@
       <c r="J43" s="44"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="45" t="s">
         <v>38</v>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>52</v>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="30"/>
       <c r="C46" s="27"/>
@@ -6610,7 +6610,7 @@
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
     </row>
-    <row r="47" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>6</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>79</v>
@@ -6657,7 +6657,7 @@
       <c r="J48" s="44"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>38</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>52</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="30"/>
       <c r="C51" s="27"/>
@@ -6721,7 +6721,7 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>7</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>79</v>
@@ -6768,7 +6768,7 @@
       <c r="J53" s="44"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="45" t="s">
         <v>38</v>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="45" t="s">
         <v>52</v>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="30"/>
       <c r="C56" s="27"/>
@@ -6832,7 +6832,7 @@
       <c r="R56" s="31"/>
       <c r="S56" s="31"/>
     </row>
-    <row r="57" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>8</v>
       </c>
@@ -6856,7 +6856,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>79</v>
@@ -6879,7 +6879,7 @@
       <c r="J58" s="44"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>38</v>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>52</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="30"/>
       <c r="C61" s="27"/>
@@ -6943,7 +6943,7 @@
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
-    <row r="62" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="64">
         <v>9</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="R62" s="31"/>
       <c r="S62" s="31"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>79</v>
@@ -6990,7 +6990,7 @@
       <c r="J63" s="44"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>38</v>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>52</v>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="30"/>
       <c r="C66" s="27"/>
@@ -7054,7 +7054,7 @@
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
     </row>
-    <row r="67" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="64">
         <v>10</v>
       </c>
@@ -7078,7 +7078,7 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>79</v>
@@ -7101,7 +7101,7 @@
       <c r="J68" s="44"/>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="45" t="s">
         <v>38</v>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="45" t="s">
         <v>52</v>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="30"/>
       <c r="C71" s="27"/>
@@ -7165,7 +7165,7 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="64">
         <v>11</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>79</v>
@@ -7212,7 +7212,7 @@
       <c r="J73" s="44"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>38</v>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>52</v>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="30"/>
       <c r="C76" s="27"/>
@@ -7276,7 +7276,7 @@
       <c r="R76" s="31"/>
       <c r="S76" s="31"/>
     </row>
-    <row r="77" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>12</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>79</v>
@@ -7323,7 +7323,7 @@
       <c r="J78" s="44"/>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="45" t="s">
         <v>38</v>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="45" t="s">
         <v>52</v>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="30"/>
       <c r="C81" s="27"/>
@@ -7387,7 +7387,7 @@
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
-    <row r="82" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="64">
         <v>13</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>79</v>
@@ -7434,7 +7434,7 @@
       <c r="J83" s="44"/>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>38</v>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45" t="s">
         <v>52</v>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="30"/>
       <c r="C86" s="27"/>
@@ -7498,7 +7498,7 @@
       <c r="R86" s="31"/>
       <c r="S86" s="31"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
         <v>14</v>
       </c>
@@ -7522,7 +7522,7 @@
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>54</v>
@@ -7546,7 +7546,7 @@
       <c r="J88" s="44"/>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>38</v>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45" t="s">
         <v>52</v>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="45"/>
       <c r="C91" s="46"/>
@@ -7602,7 +7602,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="43">
         <v>15</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="J92" s="40"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>54</v>
@@ -7644,7 +7644,7 @@
       <c r="J93" s="44"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>55</v>
@@ -7669,7 +7669,7 @@
       <c r="J94" s="44"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45" t="s">
         <v>38</v>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="45" t="s">
         <v>52</v>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45"/>
       <c r="C97" s="46"/>
@@ -7725,7 +7725,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="43">
         <v>16</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="J98" s="40"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45" t="s">
         <v>54</v>
@@ -7767,7 +7767,7 @@
       <c r="J99" s="44"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45" t="s">
         <v>38</v>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45" t="s">
         <v>52</v>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45"/>
       <c r="C102" s="46"/>
@@ -7823,7 +7823,7 @@
       <c r="J102" s="40"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="58">
         <v>17</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="J103" s="40"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45" t="str">
         <f>B94</f>
@@ -7867,7 +7867,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -7924,7 +7924,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="58">
         <v>18</v>
       </c>
@@ -7941,7 +7941,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>60</v>
@@ -7967,7 +7967,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>61</v>
@@ -7991,7 +7991,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="45"/>
       <c r="C111" s="46">
@@ -8013,7 +8013,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46">
@@ -8036,7 +8036,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
       <c r="B113" s="45"/>
       <c r="C113" s="46">
@@ -8058,7 +8058,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>76</v>
@@ -8084,7 +8084,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>111</v>
@@ -8110,7 +8110,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45"/>
       <c r="C116" s="46">
@@ -8134,7 +8134,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45" t="s">
         <v>38</v>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="43"/>
       <c r="B118" s="45" t="s">
         <v>52</v>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="45"/>
       <c r="C119" s="46"/>
@@ -8190,7 +8190,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="43">
         <v>19</v>
       </c>
@@ -8207,7 +8207,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="16"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="45" t="s">
         <v>63</v>
@@ -8230,7 +8230,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="45" t="s">
         <v>38</v>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="45" t="s">
         <v>52</v>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="45"/>
       <c r="C124" s="46"/>
@@ -8286,7 +8286,7 @@
       <c r="J124" s="40"/>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
         <v>20</v>
       </c>
@@ -8303,7 +8303,7 @@
       <c r="J125" s="40"/>
       <c r="K125" s="16"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="45" t="s">
         <v>63</v>
@@ -8326,7 +8326,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="16"/>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="45" t="s">
         <v>38</v>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="45" t="s">
         <v>52</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="K128" s="16"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="45"/>
       <c r="C129" s="46"/>
@@ -8382,7 +8382,7 @@
       <c r="J129" s="40"/>
       <c r="K129" s="16"/>
     </row>
-    <row r="130" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="43">
         <v>21</v>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="J130" s="40"/>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="56" t="s">
         <v>67</v>
@@ -8427,7 +8427,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="56"/>
       <c r="C132" s="53">
@@ -8452,7 +8452,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>68</v>
@@ -8479,7 +8479,7 @@
       <c r="J133" s="40"/>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="56"/>
       <c r="C134" s="53">
@@ -8505,7 +8505,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="43"/>
       <c r="B135" s="56" t="s">
         <v>38</v>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>52</v>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="56"/>
       <c r="C137" s="53"/>
@@ -8562,7 +8562,7 @@
       <c r="J137" s="61"/>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A138" s="43">
         <v>22</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="K138" s="5"/>
       <c r="M138" s="63"/>
     </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
       <c r="B139" s="56" t="s">
         <v>70</v>
@@ -8606,7 +8606,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>38</v>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="56" t="s">
         <v>52</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="52"/>
       <c r="C142" s="53"/>
@@ -8664,7 +8664,7 @@
       <c r="K142" s="5"/>
       <c r="M142" s="63"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
         <v>23</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="J143" s="40"/>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="56" t="s">
         <v>70</v>
@@ -8707,7 +8707,7 @@
       <c r="J144" s="40"/>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="43"/>
       <c r="B145" s="56" t="s">
         <v>38</v>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="43"/>
       <c r="B146" s="62"/>
       <c r="C146" s="53"/>
@@ -8746,7 +8746,7 @@
       <c r="J146" s="40"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="43">
         <v>24</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="J147" s="40"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
       <c r="B148" s="56" t="s">
         <v>72</v>
@@ -8789,7 +8789,7 @@
       <c r="J148" s="40"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="56" t="s">
         <v>38</v>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
       <c r="B150" s="62"/>
       <c r="C150" s="53"/>
@@ -8828,7 +8828,7 @@
       <c r="J150" s="40"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="43">
         <v>25</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="J151" s="40"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
       <c r="B152" s="56" t="s">
         <v>74</v>
@@ -8871,7 +8871,7 @@
       <c r="J152" s="40"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="43"/>
       <c r="B153" s="70" t="s">
         <v>96</v>
@@ -8896,7 +8896,7 @@
       <c r="J153" s="40"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="43"/>
       <c r="B154" s="56" t="s">
         <v>38</v>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="56" t="s">
         <v>52</v>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="56"/>
       <c r="C156" s="53"/>
@@ -8954,7 +8954,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="65">
         <v>26</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="65"/>
       <c r="B158" s="70" t="s">
         <v>94</v>
@@ -8998,7 +8998,7 @@
       <c r="J158" s="69"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="65"/>
       <c r="B159" s="70" t="s">
         <v>95</v>
@@ -9024,7 +9024,7 @@
       <c r="J159" s="69"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="65"/>
       <c r="B160" s="70" t="s">
         <v>38</v>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="65"/>
       <c r="B161" s="70" t="s">
         <v>52</v>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="65"/>
       <c r="B162" s="74"/>
       <c r="C162" s="67"/>
@@ -9082,7 +9082,7 @@
       <c r="K162" s="5"/>
       <c r="M162" s="63"/>
     </row>
-    <row r="163" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="65">
         <v>27</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="K163" s="5"/>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="65"/>
       <c r="B164" s="70" t="str">
         <f t="shared" ref="B164:E165" si="13">B158</f>
@@ -9128,7 +9128,7 @@
       <c r="J164" s="69"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="65"/>
       <c r="B165" s="70" t="str">
         <f t="shared" si="13"/>
@@ -9156,7 +9156,7 @@
       <c r="J165" s="69"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="65"/>
       <c r="B166" s="70" t="s">
         <v>38</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="65"/>
       <c r="B167" s="70" t="s">
         <v>52</v>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="52"/>
       <c r="C168" s="53"/>
@@ -9214,7 +9214,7 @@
       <c r="K168" s="5"/>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
         <v>28</v>
       </c>
@@ -9232,7 +9232,7 @@
       <c r="K169" s="5"/>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="76" t="s">
         <v>105</v>
@@ -9256,7 +9256,7 @@
       <c r="K170" s="5"/>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="65"/>
       <c r="B171" s="70" t="s">
         <v>38</v>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="65"/>
       <c r="B172" s="70" t="s">
         <v>52</v>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="43"/>
       <c r="B173" s="51"/>
       <c r="C173" s="53"/>
@@ -9314,7 +9314,7 @@
       <c r="K173" s="5"/>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="43">
         <v>29</v>
       </c>
@@ -9332,7 +9332,7 @@
       <c r="K174" s="5"/>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="43"/>
       <c r="B175" s="76" t="s">
         <v>107</v>
@@ -9356,7 +9356,7 @@
       <c r="K175" s="5"/>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="43"/>
       <c r="B176" s="76"/>
       <c r="C176" s="53">
@@ -9378,7 +9378,7 @@
       <c r="K176" s="5"/>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="43"/>
       <c r="B177" s="76" t="s">
         <v>108</v>
@@ -9402,7 +9402,7 @@
       <c r="K177" s="5"/>
       <c r="M177" s="63"/>
     </row>
-    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="65"/>
       <c r="B178" s="70" t="s">
         <v>38</v>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="65"/>
       <c r="B179" s="70" t="s">
         <v>52</v>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43"/>
       <c r="B180" s="56"/>
       <c r="C180" s="53"/>
@@ -9460,7 +9460,7 @@
       <c r="K180" s="5"/>
       <c r="M180" s="63"/>
     </row>
-    <row r="181" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="43">
         <v>30</v>
       </c>
@@ -9478,7 +9478,7 @@
       <c r="K181" s="5"/>
       <c r="M181" s="63"/>
     </row>
-    <row r="182" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="43"/>
       <c r="B182" s="76" t="s">
         <v>113</v>
@@ -9501,7 +9501,7 @@
       <c r="K182" s="5"/>
       <c r="M182" s="63"/>
     </row>
-    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="65"/>
       <c r="B183" s="70" t="s">
         <v>38</v>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="65"/>
       <c r="B184" s="70" t="s">
         <v>52</v>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="43"/>
       <c r="B185" s="56"/>
       <c r="C185" s="53"/>
@@ -9559,7 +9559,7 @@
       <c r="K185" s="5"/>
       <c r="M185" s="63"/>
     </row>
-    <row r="186" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="26">
         <v>31</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="R186" s="31"/>
       <c r="S186" s="31"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="43"/>
       <c r="B187" s="45"/>
       <c r="C187" s="46"/>
@@ -9608,7 +9608,7 @@
       <c r="J187" s="44"/>
       <c r="K187" s="16"/>
     </row>
-    <row r="188" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A188" s="26">
         <v>32</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="S188" s="18"/>
       <c r="T188" s="18"/>
     </row>
-    <row r="189" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A189" s="26"/>
       <c r="B189" s="30"/>
       <c r="C189" s="27"/>
@@ -9666,7 +9666,7 @@
       <c r="S189" s="18"/>
       <c r="T189" s="18"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="50" t="s">
         <v>15</v>
@@ -9684,15 +9684,15 @@
       </c>
       <c r="K190" s="16"/>
     </row>
-    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C192" s="95">
+      <c r="C192" s="104">
         <f>J190</f>
         <v>1119127.4076919584</v>
       </c>
-      <c r="D192" s="96"/>
+      <c r="D192" s="105"/>
       <c r="E192" s="14">
         <v>100</v>
       </c>
@@ -9703,72 +9703,78 @@
       <c r="J192" s="21"/>
       <c r="K192" s="22"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C193" s="102">
+      <c r="C193" s="111">
         <v>1000000</v>
       </c>
-      <c r="D193" s="103"/>
+      <c r="D193" s="112"/>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="102">
+      <c r="C194" s="111">
         <f>C193-C196-C197</f>
         <v>950000</v>
       </c>
-      <c r="D194" s="103"/>
+      <c r="D194" s="112"/>
       <c r="E194" s="14">
         <f>C194/C192*100</f>
         <v>84.887564496274862</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="94">
+      <c r="C195" s="103">
         <f>C192-C194</f>
         <v>169127.40769195836</v>
       </c>
-      <c r="D195" s="94"/>
+      <c r="D195" s="103"/>
       <c r="E195" s="14">
         <f>100-E194</f>
         <v>15.112435503725138</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C196" s="95">
+      <c r="C196" s="104">
         <f>C193*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D196" s="96"/>
+      <c r="D196" s="105"/>
       <c r="E196" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C197" s="95">
+      <c r="C197" s="104">
         <f>C193*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D197" s="96"/>
+      <c r="D197" s="105"/>
       <c r="E197" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C196:D196"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="A7:F7"/>
@@ -9777,12 +9783,6 @@
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C195:D195"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9804,105 +9804,105 @@
       <selection activeCell="A85" sqref="A85:XFD89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="N3" s="79"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
       <c r="N4" s="79"/>
     </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
       <c r="M5" s="1"/>
       <c r="N5" s="79"/>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>115</v>
       </c>
@@ -9912,34 +9912,34 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
       <c r="M6" s="1"/>
       <c r="N6" s="79"/>
     </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
       <c r="N7" s="79"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="N8" s="80"/>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -9992,7 +9992,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>99</v>
@@ -10019,7 +10019,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>129</v>
@@ -10047,7 +10047,7 @@
       <c r="J11" s="44"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>38</v>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="45" t="s">
         <v>52</v>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="30"/>
       <c r="C14" s="27"/>
@@ -10110,7 +10110,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
     </row>
-    <row r="15" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>2</v>
       </c>
@@ -10127,7 +10127,7 @@
       <c r="J15" s="40"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>100</v>
@@ -10152,7 +10152,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45"/>
       <c r="C17" s="46">
@@ -10175,7 +10175,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>103</v>
@@ -10202,7 +10202,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>44</v>
@@ -10228,7 +10228,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>43</v>
@@ -10254,7 +10254,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>65</v>
@@ -10279,7 +10279,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>90</v>
@@ -10305,7 +10305,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>91</v>
@@ -10331,7 +10331,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="45" t="s">
         <v>92</v>
@@ -10357,7 +10357,7 @@
       <c r="J24" s="44"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
         <v>109</v>
@@ -10382,7 +10382,7 @@
       <c r="J25" s="44"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>110</v>
@@ -10406,7 +10406,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>38</v>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>52</v>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45"/>
       <c r="C29" s="46"/>
@@ -10463,7 +10463,7 @@
       <c r="J29" s="44"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
         <v>3</v>
       </c>
@@ -10480,7 +10480,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
         <v>116</v>
@@ -10507,7 +10507,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="48"/>
       <c r="C32" s="46">
@@ -10532,7 +10532,7 @@
       <c r="J32" s="44"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>120</v>
@@ -10558,7 +10558,7 @@
       <c r="J33" s="44"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="45" t="s">
         <v>121</v>
@@ -10586,7 +10586,7 @@
       <c r="J34" s="44"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="45" t="s">
         <v>65</v>
@@ -10614,7 +10614,7 @@
       <c r="J35" s="44"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45"/>
       <c r="C36" s="46">
@@ -10639,7 +10639,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -10664,7 +10664,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -10702,7 +10702,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>4</v>
       </c>
@@ -10726,7 +10726,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -10749,7 +10749,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="45"/>
       <c r="C44" s="46"/>
@@ -10806,7 +10806,7 @@
       <c r="J44" s="40"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>5</v>
       </c>
@@ -10830,7 +10830,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -10853,7 +10853,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -10917,7 +10917,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>6</v>
       </c>
@@ -10941,7 +10941,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -10964,7 +10964,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -11028,7 +11028,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="26">
         <v>7</v>
       </c>
@@ -11052,7 +11052,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -11075,7 +11075,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>38</v>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>52</v>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="30"/>
       <c r="C59" s="27"/>
@@ -11139,7 +11139,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>8</v>
       </c>
@@ -11163,7 +11163,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>79</v>
@@ -11186,7 +11186,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>38</v>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>52</v>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27"/>
@@ -11250,7 +11250,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>9</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>79</v>
@@ -11297,7 +11297,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>38</v>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>52</v>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -11361,7 +11361,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="64">
         <v>10</v>
       </c>
@@ -11385,7 +11385,7 @@
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>79</v>
@@ -11408,7 +11408,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>38</v>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>52</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="30"/>
       <c r="C74" s="27"/>
@@ -11472,7 +11472,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="64">
         <v>11</v>
       </c>
@@ -11496,7 +11496,7 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>79</v>
@@ -11519,7 +11519,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>38</v>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>52</v>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="30"/>
       <c r="C79" s="27"/>
@@ -11583,7 +11583,7 @@
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
     </row>
-    <row r="80" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="64">
         <v>12</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="R80" s="31"/>
       <c r="S80" s="31"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>79</v>
@@ -11630,7 +11630,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>38</v>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>52</v>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="30"/>
       <c r="C84" s="27"/>
@@ -11694,7 +11694,7 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
     </row>
-    <row r="85" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="64">
         <v>13</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="45" t="s">
         <v>79</v>
@@ -11741,7 +11741,7 @@
       <c r="J86" s="44"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>38</v>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>52</v>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="30"/>
       <c r="C89" s="27"/>
@@ -11805,7 +11805,7 @@
       <c r="R89" s="31"/>
       <c r="S89" s="31"/>
     </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
         <v>14</v>
       </c>
@@ -11829,7 +11829,7 @@
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="45" t="s">
         <v>54</v>
@@ -11853,7 +11853,7 @@
       <c r="J91" s="44"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="s">
         <v>38</v>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>52</v>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45"/>
       <c r="C94" s="46"/>
@@ -11909,7 +11909,7 @@
       <c r="J94" s="40"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="43">
         <v>15</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="45" t="s">
         <v>117</v>
@@ -11953,7 +11953,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="48"/>
       <c r="C97" s="46">
@@ -11978,7 +11978,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>44</v>
@@ -12003,7 +12003,7 @@
       <c r="J98" s="40"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45" t="s">
         <v>43</v>
@@ -12029,7 +12029,7 @@
       <c r="J99" s="40"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45" t="s">
         <v>54</v>
@@ -12054,7 +12054,7 @@
       <c r="J100" s="44"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45" t="s">
         <v>55</v>
@@ -12079,7 +12079,7 @@
       <c r="J101" s="44"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>38</v>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="45" t="s">
         <v>52</v>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45"/>
       <c r="C104" s="46"/>
@@ -12135,7 +12135,7 @@
       <c r="J104" s="44"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="43">
         <v>16</v>
       </c>
@@ -12152,7 +12152,7 @@
       <c r="J105" s="40"/>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>54</v>
@@ -12177,7 +12177,7 @@
       <c r="J106" s="44"/>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45" t="s">
         <v>38</v>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
       <c r="B108" s="45" t="s">
         <v>52</v>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45"/>
       <c r="C109" s="46"/>
@@ -12233,7 +12233,7 @@
       <c r="J109" s="40"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="58">
         <v>17</v>
       </c>
@@ -12250,7 +12250,7 @@
       <c r="J110" s="40"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="58"/>
       <c r="B111" s="45" t="str">
         <f>B96</f>
@@ -12278,7 +12278,7 @@
       <c r="J111" s="40"/>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="58"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46">
@@ -12303,7 +12303,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="58"/>
       <c r="B113" s="45" t="str">
         <f>B98</f>
@@ -12331,7 +12331,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="58"/>
       <c r="B114" s="45" t="str">
         <f>B99</f>
@@ -12359,7 +12359,7 @@
       <c r="J114" s="40"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="str">
         <f>B101</f>
@@ -12386,7 +12386,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>38</v>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45" t="s">
         <v>52</v>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="43"/>
       <c r="B118" s="45"/>
       <c r="C118" s="46"/>
@@ -12443,7 +12443,7 @@
       <c r="J118" s="44"/>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="43">
         <v>18</v>
       </c>
@@ -12460,7 +12460,7 @@
       <c r="J119" s="44"/>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="45" t="s">
         <v>119</v>
@@ -12480,7 +12480,7 @@
       <c r="J120" s="44"/>
       <c r="K120" s="16"/>
     </row>
-    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="45" t="s">
         <v>38</v>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="45" t="s">
         <v>52</v>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="45"/>
       <c r="C123" s="46"/>
@@ -12536,7 +12536,7 @@
       <c r="J123" s="40"/>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="58">
         <v>19</v>
       </c>
@@ -12553,7 +12553,7 @@
       <c r="J124" s="40"/>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="45" t="s">
         <v>60</v>
@@ -12579,7 +12579,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="16"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="45" t="s">
         <v>61</v>
@@ -12603,7 +12603,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="16"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="45"/>
       <c r="C127" s="46">
@@ -12625,7 +12625,7 @@
       <c r="J127" s="9"/>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="45"/>
       <c r="C128" s="46">
@@ -12648,7 +12648,7 @@
       <c r="J128" s="9"/>
       <c r="K128" s="16"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="45"/>
       <c r="C129" s="46">
@@ -12670,7 +12670,7 @@
       <c r="J129" s="9"/>
       <c r="K129" s="16"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="45" t="s">
         <v>76</v>
@@ -12696,7 +12696,7 @@
       <c r="J130" s="9"/>
       <c r="K130" s="16"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="45" t="s">
         <v>111</v>
@@ -12722,7 +12722,7 @@
       <c r="J131" s="9"/>
       <c r="K131" s="16"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="45"/>
       <c r="C132" s="46">
@@ -12746,7 +12746,7 @@
       <c r="J132" s="9"/>
       <c r="K132" s="16"/>
     </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="45" t="s">
         <v>38</v>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="K133" s="16"/>
     </row>
-    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="45" t="s">
         <v>52</v>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="K134" s="16"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="43"/>
       <c r="B135" s="45"/>
       <c r="C135" s="46"/>
@@ -12802,7 +12802,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="16"/>
     </row>
-    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="43">
         <v>20</v>
       </c>
@@ -12819,7 +12819,7 @@
       <c r="J136" s="40"/>
       <c r="K136" s="16"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="45" t="s">
         <v>63</v>
@@ -12842,7 +12842,7 @@
       <c r="J137" s="9"/>
       <c r="K137" s="16"/>
     </row>
-    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="45" t="s">
         <v>38</v>
@@ -12867,7 +12867,7 @@
       </c>
       <c r="K138" s="16"/>
     </row>
-    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
       <c r="B139" s="45" t="s">
         <v>52</v>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="K139" s="16"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="45"/>
       <c r="C140" s="46"/>
@@ -12898,7 +12898,7 @@
       <c r="J140" s="40"/>
       <c r="K140" s="16"/>
     </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="43">
         <v>21</v>
       </c>
@@ -12915,7 +12915,7 @@
       <c r="J141" s="40"/>
       <c r="K141" s="16"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="45" t="s">
         <v>63</v>
@@ -12938,7 +12938,7 @@
       <c r="J142" s="9"/>
       <c r="K142" s="16"/>
     </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="45" t="s">
         <v>38</v>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="K143" s="16"/>
     </row>
-    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="45" t="s">
         <v>52</v>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="K144" s="16"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="43"/>
       <c r="B145" s="45"/>
       <c r="C145" s="46"/>
@@ -12994,7 +12994,7 @@
       <c r="J145" s="40"/>
       <c r="K145" s="16"/>
     </row>
-    <row r="146" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="43">
         <v>22</v>
       </c>
@@ -13011,7 +13011,7 @@
       <c r="J146" s="40"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="43"/>
       <c r="B147" s="56" t="s">
         <v>67</v>
@@ -13039,7 +13039,7 @@
       <c r="J147" s="40"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
       <c r="B148" s="56"/>
       <c r="C148" s="53">
@@ -13064,7 +13064,7 @@
       <c r="J148" s="40"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="56" t="s">
         <v>68</v>
@@ -13091,7 +13091,7 @@
       <c r="J149" s="40"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
       <c r="B150" s="56"/>
       <c r="C150" s="53">
@@ -13117,7 +13117,7 @@
       <c r="J150" s="40"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43"/>
       <c r="B151" s="56" t="s">
         <v>38</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
       <c r="B152" s="56" t="s">
         <v>52</v>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="43"/>
       <c r="B153" s="56"/>
       <c r="C153" s="53"/>
@@ -13174,7 +13174,7 @@
       <c r="J153" s="61"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A154" s="43">
         <v>23</v>
       </c>
@@ -13192,7 +13192,7 @@
       <c r="K154" s="5"/>
       <c r="M154" s="63"/>
     </row>
-    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="56" t="s">
         <v>70</v>
@@ -13218,7 +13218,7 @@
       <c r="J155" s="40"/>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="56" t="s">
         <v>38</v>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="56" t="s">
         <v>52</v>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="52"/>
       <c r="C158" s="53"/>
@@ -13276,7 +13276,7 @@
       <c r="K158" s="5"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="43">
         <v>24</v>
       </c>
@@ -13293,7 +13293,7 @@
       <c r="J159" s="40"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="56" t="s">
         <v>70</v>
@@ -13319,7 +13319,7 @@
       <c r="J160" s="40"/>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="56" t="s">
         <v>38</v>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="43"/>
       <c r="B162" s="62"/>
       <c r="C162" s="53"/>
@@ -13358,7 +13358,7 @@
       <c r="J162" s="40"/>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="43">
         <v>25</v>
       </c>
@@ -13375,7 +13375,7 @@
       <c r="J163" s="40"/>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="56" t="s">
         <v>72</v>
@@ -13401,7 +13401,7 @@
       <c r="J164" s="40"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="56" t="s">
         <v>38</v>
@@ -13427,7 +13427,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="43"/>
       <c r="B166" s="62"/>
       <c r="C166" s="53"/>
@@ -13440,7 +13440,7 @@
       <c r="J166" s="40"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="43">
         <v>26</v>
       </c>
@@ -13457,7 +13457,7 @@
       <c r="J167" s="40"/>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="56" t="s">
         <v>74</v>
@@ -13483,7 +13483,7 @@
       <c r="J168" s="40"/>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="43"/>
       <c r="B169" s="70" t="s">
         <v>96</v>
@@ -13508,7 +13508,7 @@
       <c r="J169" s="40"/>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="56" t="s">
         <v>38</v>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="43"/>
       <c r="B171" s="56" t="s">
         <v>52</v>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="43"/>
       <c r="B172" s="56"/>
       <c r="C172" s="53"/>
@@ -13566,7 +13566,7 @@
       <c r="K172" s="5"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="65">
         <v>27</v>
       </c>
@@ -13584,7 +13584,7 @@
       <c r="K173" s="5"/>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="65"/>
       <c r="B174" s="70" t="s">
         <v>94</v>
@@ -13610,7 +13610,7 @@
       <c r="J174" s="69"/>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="65"/>
       <c r="B175" s="70" t="s">
         <v>95</v>
@@ -13636,7 +13636,7 @@
       <c r="J175" s="69"/>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="65"/>
       <c r="B176" s="70" t="s">
         <v>38</v>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="65"/>
       <c r="B177" s="70" t="s">
         <v>52</v>
@@ -13680,7 +13680,7 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="65"/>
       <c r="B178" s="74"/>
       <c r="C178" s="67"/>
@@ -13694,7 +13694,7 @@
       <c r="K178" s="5"/>
       <c r="M178" s="63"/>
     </row>
-    <row r="179" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="65">
         <v>28</v>
       </c>
@@ -13712,7 +13712,7 @@
       <c r="K179" s="5"/>
       <c r="M179" s="63"/>
     </row>
-    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="65"/>
       <c r="B180" s="70" t="str">
         <f t="shared" ref="B180:E181" si="16">B174</f>
@@ -13740,7 +13740,7 @@
       <c r="J180" s="69"/>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="65"/>
       <c r="B181" s="70" t="str">
         <f t="shared" si="16"/>
@@ -13768,7 +13768,7 @@
       <c r="J181" s="69"/>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="65"/>
       <c r="B182" s="70" t="s">
         <v>38</v>
@@ -13794,7 +13794,7 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="65"/>
       <c r="B183" s="70" t="s">
         <v>52</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="43"/>
       <c r="B184" s="52"/>
       <c r="C184" s="53"/>
@@ -13826,7 +13826,7 @@
       <c r="K184" s="5"/>
       <c r="M184" s="63"/>
     </row>
-    <row r="185" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="43">
         <v>29</v>
       </c>
@@ -13844,7 +13844,7 @@
       <c r="K185" s="5"/>
       <c r="M185" s="63"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="43"/>
       <c r="B186" s="76" t="s">
         <v>105</v>
@@ -13868,7 +13868,7 @@
       <c r="K186" s="5"/>
       <c r="M186" s="63"/>
     </row>
-    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="65"/>
       <c r="B187" s="70" t="s">
         <v>38</v>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="65"/>
       <c r="B188" s="70" t="s">
         <v>52</v>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="43"/>
       <c r="B189" s="51"/>
       <c r="C189" s="53"/>
@@ -13926,7 +13926,7 @@
       <c r="K189" s="5"/>
       <c r="M189" s="63"/>
     </row>
-    <row r="190" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="43">
         <v>30</v>
       </c>
@@ -13944,7 +13944,7 @@
       <c r="K190" s="5"/>
       <c r="M190" s="63"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="43"/>
       <c r="B191" s="76" t="s">
         <v>107</v>
@@ -13968,7 +13968,7 @@
       <c r="K191" s="5"/>
       <c r="M191" s="63"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="43"/>
       <c r="B192" s="76"/>
       <c r="C192" s="53">
@@ -13990,7 +13990,7 @@
       <c r="K192" s="5"/>
       <c r="M192" s="63"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="43"/>
       <c r="B193" s="76" t="s">
         <v>108</v>
@@ -14014,7 +14014,7 @@
       <c r="K193" s="5"/>
       <c r="M193" s="63"/>
     </row>
-    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="65"/>
       <c r="B194" s="70" t="s">
         <v>38</v>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="65"/>
       <c r="B195" s="70" t="s">
         <v>52</v>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="43"/>
       <c r="B196" s="56"/>
       <c r="C196" s="53"/>
@@ -14072,7 +14072,7 @@
       <c r="K196" s="5"/>
       <c r="M196" s="63"/>
     </row>
-    <row r="197" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="43">
         <v>31</v>
       </c>
@@ -14090,7 +14090,7 @@
       <c r="K197" s="5"/>
       <c r="M197" s="63"/>
     </row>
-    <row r="198" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="43"/>
       <c r="B198" s="76" t="s">
         <v>113</v>
@@ -14113,7 +14113,7 @@
       <c r="K198" s="5"/>
       <c r="M198" s="63"/>
     </row>
-    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="65"/>
       <c r="B199" s="70" t="s">
         <v>38</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="65"/>
       <c r="B200" s="70" t="s">
         <v>52</v>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="43"/>
       <c r="B201" s="45"/>
       <c r="C201" s="46"/>
@@ -14170,7 +14170,7 @@
       <c r="J201" s="40"/>
       <c r="K201" s="16"/>
     </row>
-    <row r="202" spans="1:13" ht="58.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A202" s="43">
         <v>32</v>
       </c>
@@ -14187,7 +14187,7 @@
       <c r="J202" s="44"/>
       <c r="K202" s="16"/>
     </row>
-    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="43"/>
       <c r="B203" s="45" t="str">
         <f>B96</f>
@@ -14214,7 +14214,7 @@
       <c r="J203" s="40"/>
       <c r="K203" s="16"/>
     </row>
-    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="43"/>
       <c r="B204" s="45"/>
       <c r="C204" s="46">
@@ -14238,7 +14238,7 @@
       <c r="J204" s="40"/>
       <c r="K204" s="16"/>
     </row>
-    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="43"/>
       <c r="B205" s="45" t="str">
         <f>B99</f>
@@ -14265,7 +14265,7 @@
       <c r="J205" s="40"/>
       <c r="K205" s="16"/>
     </row>
-    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="65"/>
       <c r="B206" s="70" t="s">
         <v>38</v>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="65"/>
       <c r="B207" s="70" t="s">
         <v>52</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="65"/>
       <c r="B208" s="70"/>
       <c r="C208" s="67"/>
@@ -14321,7 +14321,7 @@
       <c r="J208" s="73"/>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A209" s="65">
         <v>33</v>
       </c>
@@ -14338,7 +14338,7 @@
       <c r="J209" s="73"/>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="65"/>
       <c r="B210" s="70" t="s">
         <v>125</v>
@@ -14362,7 +14362,7 @@
       <c r="J210" s="73"/>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="65"/>
       <c r="B211" s="70" t="s">
         <v>38</v>
@@ -14387,7 +14387,7 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="65"/>
       <c r="B212" s="70" t="s">
         <v>52</v>
@@ -14405,7 +14405,7 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="65"/>
       <c r="B213" s="70"/>
       <c r="C213" s="67"/>
@@ -14418,7 +14418,7 @@
       <c r="J213" s="73"/>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A214" s="65">
         <v>34</v>
       </c>
@@ -14435,7 +14435,7 @@
       <c r="J214" s="73"/>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="65"/>
       <c r="B215" s="70" t="s">
         <v>125</v>
@@ -14463,7 +14463,7 @@
       <c r="J215" s="73"/>
       <c r="K215" s="5"/>
     </row>
-    <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="65"/>
       <c r="B216" s="70" t="s">
         <v>38</v>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="K216" s="5"/>
     </row>
-    <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="65"/>
       <c r="B217" s="70" t="s">
         <v>52</v>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="K217" s="5"/>
     </row>
-    <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="65"/>
       <c r="B218" s="70"/>
       <c r="C218" s="67"/>
@@ -14519,7 +14519,7 @@
       <c r="J218" s="73"/>
       <c r="K218" s="5"/>
     </row>
-    <row r="219" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A219" s="65">
         <v>35</v>
       </c>
@@ -14536,7 +14536,7 @@
       <c r="J219" s="73"/>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="65"/>
       <c r="B220" s="70" t="s">
         <v>125</v>
@@ -14564,7 +14564,7 @@
       <c r="J220" s="73"/>
       <c r="K220" s="5"/>
     </row>
-    <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="65"/>
       <c r="B221" s="70" t="s">
         <v>38</v>
@@ -14589,7 +14589,7 @@
       </c>
       <c r="K221" s="5"/>
     </row>
-    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="65"/>
       <c r="B222" s="70" t="s">
         <v>52</v>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="K222" s="5"/>
     </row>
-    <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="65"/>
       <c r="B223" s="70"/>
       <c r="C223" s="67"/>
@@ -14620,7 +14620,7 @@
       <c r="J223" s="73"/>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A224" s="65">
         <v>36</v>
       </c>
@@ -14637,7 +14637,7 @@
       <c r="J224" s="73"/>
       <c r="K224" s="5"/>
     </row>
-    <row r="225" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="65"/>
       <c r="B225" s="70" t="s">
         <v>125</v>
@@ -14665,7 +14665,7 @@
       <c r="J225" s="73"/>
       <c r="K225" s="5"/>
     </row>
-    <row r="226" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="65"/>
       <c r="B226" s="70" t="s">
         <v>38</v>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="65"/>
       <c r="B227" s="70" t="s">
         <v>52</v>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="K227" s="5"/>
     </row>
-    <row r="228" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="65"/>
       <c r="B228" s="70"/>
       <c r="C228" s="67"/>
@@ -14721,7 +14721,7 @@
       <c r="J228" s="73"/>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="26">
         <v>37</v>
       </c>
@@ -14757,7 +14757,7 @@
       <c r="R229" s="31"/>
       <c r="S229" s="31"/>
     </row>
-    <row r="230" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="43"/>
       <c r="B230" s="45"/>
       <c r="C230" s="46"/>
@@ -14770,7 +14770,7 @@
       <c r="J230" s="40"/>
       <c r="K230" s="16"/>
     </row>
-    <row r="231" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A231" s="26">
         <v>38</v>
       </c>
@@ -14807,7 +14807,7 @@
       <c r="S231" s="18"/>
       <c r="T231" s="18"/>
     </row>
-    <row r="232" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="43"/>
       <c r="B232" s="45"/>
       <c r="C232" s="46"/>
@@ -14820,7 +14820,7 @@
       <c r="J232" s="40"/>
       <c r="K232" s="16"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="43"/>
       <c r="B233" s="50" t="s">
         <v>15</v>
@@ -14838,15 +14838,15 @@
       </c>
       <c r="K233" s="16"/>
     </row>
-    <row r="235" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C235" s="95">
+      <c r="C235" s="104">
         <f>J233</f>
         <v>1167390.8565538933</v>
       </c>
-      <c r="D235" s="96"/>
+      <c r="D235" s="105"/>
       <c r="E235" s="14">
         <v>100</v>
       </c>
@@ -14857,72 +14857,78 @@
       <c r="J235" s="21"/>
       <c r="K235" s="22"/>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B236" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C236" s="102">
+      <c r="C236" s="111">
         <v>1000000</v>
       </c>
-      <c r="D236" s="103"/>
+      <c r="D236" s="112"/>
       <c r="E236" s="14"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B237" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C237" s="102">
+      <c r="C237" s="111">
         <f>C236-C239-C240</f>
         <v>950000</v>
       </c>
-      <c r="D237" s="103"/>
+      <c r="D237" s="112"/>
       <c r="E237" s="14">
         <f>C237/C235*100</f>
         <v>81.37805728617532</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B238" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C238" s="94">
+      <c r="C238" s="103">
         <f>C235-C237</f>
         <v>217390.8565538933</v>
       </c>
-      <c r="D238" s="94"/>
+      <c r="D238" s="103"/>
       <c r="E238" s="14">
         <f>100-E237</f>
         <v>18.62194271382468</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B239" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C239" s="95">
+      <c r="C239" s="104">
         <f>C236*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D239" s="96"/>
+      <c r="D239" s="105"/>
       <c r="E239" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B240" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C240" s="95">
+      <c r="C240" s="104">
         <f>C236*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D240" s="96"/>
+      <c r="D240" s="105"/>
       <c r="E240" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C239:D239"/>
     <mergeCell ref="C240:D240"/>
     <mergeCell ref="A7:F7"/>
@@ -14931,12 +14937,6 @@
     <mergeCell ref="C236:D236"/>
     <mergeCell ref="C237:D237"/>
     <mergeCell ref="C238:D238"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14954,109 +14954,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="N3" s="79"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
       <c r="N4" s="79"/>
     </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
       <c r="M5" s="1"/>
       <c r="N5" s="79"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>115</v>
       </c>
@@ -15066,34 +15066,34 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
       <c r="M6" s="1"/>
       <c r="N6" s="79"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
       <c r="N7" s="79"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="N8" s="80"/>
     </row>
-    <row r="9" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>2</v>
       </c>
@@ -15146,9 +15146,9 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="89" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="49"/>
@@ -15161,7 +15161,7 @@
       <c r="J10" s="40"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>100</v>
@@ -15177,7 +15177,7 @@
         <f>1.11+0.7</f>
         <v>1.81</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="81">
         <f t="shared" ref="G11:G20" si="0">PRODUCT(C11:F11)</f>
         <v>10.7514</v>
       </c>
@@ -15186,7 +15186,7 @@
       <c r="J11" s="44"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45"/>
       <c r="C12" s="46">
@@ -15200,7 +15200,7 @@
         <f>1.11+0.7</f>
         <v>1.81</v>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="81">
         <f t="shared" si="0"/>
         <v>10.7514</v>
       </c>
@@ -15209,7 +15209,7 @@
       <c r="J12" s="44"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="45" t="s">
         <v>103</v>
@@ -15227,7 +15227,7 @@
         <f>F30</f>
         <v>0.75</v>
       </c>
-      <c r="G13" s="104">
+      <c r="G13" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15236,7 +15236,7 @@
       <c r="J13" s="44"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="45" t="s">
         <v>44</v>
@@ -15254,7 +15254,7 @@
         <f>F27</f>
         <v>0.7</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="81">
         <f t="shared" si="0"/>
         <v>-0.97999999999999987</v>
       </c>
@@ -15263,7 +15263,7 @@
       <c r="J14" s="44"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>43</v>
@@ -15281,7 +15281,7 @@
         <f>F28</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G15" s="104">
+      <c r="G15" s="81">
         <f t="shared" si="0"/>
         <v>-3.7793355684242598</v>
       </c>
@@ -15290,7 +15290,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>65</v>
@@ -15307,7 +15307,7 @@
         <f>0.75-0.15*4</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15316,9 +15316,9 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="89" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="46">
@@ -15333,7 +15333,7 @@
         <f>20/12/3.281</f>
         <v>0.50797521080971253</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="81">
         <f t="shared" si="0"/>
         <v>3.9221899849170119</v>
       </c>
@@ -15342,7 +15342,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>110</v>
@@ -15359,7 +15359,7 @@
         <f>1/3.281</f>
         <v>0.30478512648582745</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="81">
         <f t="shared" si="0"/>
         <v>-0.32512890664443644</v>
       </c>
@@ -15368,7 +15368,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45"/>
       <c r="C19" s="46">
@@ -15384,7 +15384,7 @@
         <f>5/12/3.281</f>
         <v>0.12699380270242813</v>
       </c>
-      <c r="G19" s="104">
+      <c r="G19" s="81">
         <f t="shared" si="0"/>
         <v>-0.33545045923632338</v>
       </c>
@@ -15393,7 +15393,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45"/>
       <c r="C20" s="46">
@@ -15409,7 +15409,7 @@
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G20" s="104">
+      <c r="G20" s="81">
         <f t="shared" si="0"/>
         <v>-0.18578794665396367</v>
       </c>
@@ -15418,7 +15418,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>38</v>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>52</v>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46"/>
@@ -15475,7 +15475,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
         <v>3</v>
       </c>
@@ -15492,7 +15492,7 @@
       <c r="J24" s="44"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
         <v>116</v>
@@ -15510,7 +15510,7 @@
         <f>8/3.281</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G25" s="104">
+      <c r="G25" s="81">
         <f t="shared" ref="G25:G28" si="1">PRODUCT(C25:F25)</f>
         <v>1.0094483389210605</v>
       </c>
@@ -15519,7 +15519,7 @@
       <c r="J25" s="44"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="48"/>
       <c r="C26" s="46">
@@ -15535,7 +15535,7 @@
         <f>8/3.281</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G26" s="104">
+      <c r="G26" s="81">
         <f t="shared" si="1"/>
         <v>1.0094483389210605</v>
       </c>
@@ -15544,7 +15544,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>120</v>
@@ -15561,7 +15561,7 @@
       <c r="F27" s="14">
         <v>0.7</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="81">
         <f t="shared" si="1"/>
         <v>-9.799999999999999E-2</v>
       </c>
@@ -15570,7 +15570,7 @@
       <c r="J27" s="44"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>121</v>
@@ -15588,7 +15588,7 @@
         <f>8/3.281</f>
         <v>2.4382810118866196</v>
       </c>
-      <c r="G28" s="104">
+      <c r="G28" s="81">
         <f t="shared" si="1"/>
         <v>-0.29259372142639434</v>
       </c>
@@ -15597,7 +15597,7 @@
       <c r="J28" s="44"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>65</v>
@@ -15617,7 +15617,7 @@
         <f>F16</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="G29" s="104">
+      <c r="G29" s="81">
         <f>PRODUCT(C29:F29)</f>
         <v>0</v>
       </c>
@@ -15626,7 +15626,7 @@
       <c r="J29" s="44"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45"/>
       <c r="C30" s="46">
@@ -15643,7 +15643,7 @@
       <c r="F30" s="14">
         <v>0.75</v>
       </c>
-      <c r="G30" s="104">
+      <c r="G30" s="81">
         <f>PRODUCT(C30:F30)</f>
         <v>0</v>
       </c>
@@ -15652,7 +15652,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="str">
         <f>B17</f>
@@ -15672,7 +15672,7 @@
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="G31" s="104">
+      <c r="G31" s="81">
         <f>PRODUCT(C31:F31)</f>
         <v>1.8541095194554505E-2</v>
       </c>
@@ -15681,7 +15681,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>38</v>
@@ -15690,7 +15690,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="105">
+      <c r="G32" s="82">
         <f>SUM(G25:G31)</f>
         <v>1.6468440516102811</v>
       </c>
@@ -15706,7 +15706,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>52</v>
@@ -15715,7 +15715,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="105"/>
+      <c r="G33" s="82"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44">
@@ -15724,14 +15724,14 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="106"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
       <c r="J34" s="44"/>
@@ -15744,7 +15744,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>4</v>
       </c>
@@ -15755,7 +15755,7 @@
       <c r="D35" s="28"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
-      <c r="G35" s="106"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
       <c r="J35" s="44"/>
@@ -15768,7 +15768,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>79</v>
@@ -15782,7 +15782,7 @@
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="104">
+      <c r="G36" s="81">
         <f>PRODUCT(C36:F36)</f>
         <v>12.24</v>
       </c>
@@ -15791,7 +15791,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -15800,7 +15800,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="105">
+      <c r="G37" s="82">
         <f>SUM(G36)</f>
         <v>12.24</v>
       </c>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -15826,7 +15826,7 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="105"/>
+      <c r="G38" s="82"/>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="44">
@@ -15835,20 +15835,20 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="45"/>
       <c r="C39" s="46"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="104"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
       <c r="J39" s="40"/>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>5</v>
       </c>
@@ -15859,7 +15859,7 @@
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
-      <c r="G40" s="106"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="38"/>
       <c r="I40" s="39"/>
       <c r="J40" s="44"/>
@@ -15872,7 +15872,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="104">
+      <c r="G41" s="81">
         <f>PRODUCT(C41:F41)</f>
         <v>12.24</v>
       </c>
@@ -15895,7 +15895,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -15904,7 +15904,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="105">
+      <c r="G42" s="82">
         <f>SUM(G41)</f>
         <v>12.24</v>
       </c>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="27"/>
@@ -15959,7 +15959,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>6</v>
       </c>
@@ -15983,7 +15983,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="104">
+      <c r="G46" s="81">
         <f>PRODUCT(C46:F46)</f>
         <v>10.61</v>
       </c>
@@ -16006,7 +16006,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -16015,7 +16015,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="105">
+      <c r="G47" s="82">
         <f>SUM(G46)</f>
         <v>10.61</v>
       </c>
@@ -16032,7 +16032,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -16070,7 +16070,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>7</v>
       </c>
@@ -16094,7 +16094,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -16108,7 +16108,7 @@
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="104">
+      <c r="G51" s="81">
         <f>PRODUCT(C51:F51)</f>
         <v>22.780859494056692</v>
       </c>
@@ -16117,7 +16117,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -16181,7 +16181,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>10</v>
       </c>
@@ -16205,7 +16205,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="104">
+      <c r="G56" s="81">
         <f>PRODUCT(C56:F56)</f>
         <v>10.809999999999999</v>
       </c>
@@ -16228,7 +16228,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>109</v>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="104">
+      <c r="G57" s="81">
         <f>PRODUCT(C57:F57)</f>
         <v>8.1276033729554005</v>
       </c>
@@ -16251,7 +16251,7 @@
       <c r="J57" s="44"/>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>38</v>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>52</v>
@@ -16295,7 +16295,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="30"/>
       <c r="C60" s="27"/>
@@ -16315,7 +16315,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="64">
         <v>13</v>
       </c>
@@ -16339,7 +16339,7 @@
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>79</v>
@@ -16362,7 +16362,7 @@
       <c r="J62" s="44"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>38</v>
@@ -16388,7 +16388,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>52</v>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="30"/>
       <c r="C65" s="27"/>
@@ -16426,7 +16426,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="30"/>
       <c r="C66" s="27"/>
@@ -16446,7 +16446,7 @@
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="30"/>
       <c r="C67" s="27"/>
@@ -16466,7 +16466,7 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="30"/>
       <c r="C68" s="27"/>
@@ -16486,7 +16486,7 @@
       <c r="R68" s="31"/>
       <c r="S68" s="31"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -16506,7 +16506,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="43">
         <v>22</v>
       </c>
@@ -16523,26 +16523,26 @@
       <c r="J70" s="40"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
-      <c r="B71" s="107" t="s">
+      <c r="B71" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="108">
+      <c r="C71" s="85">
         <v>1</v>
       </c>
-      <c r="D71" s="109">
+      <c r="D71" s="86">
         <f>1.2+(6.667/3.281+1/12/3.281)*2</f>
         <v>5.3148023976429952</v>
       </c>
-      <c r="E71" s="109">
+      <c r="E71" s="86">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="F71" s="109">
+      <c r="F71" s="86">
         <v>0.125</v>
       </c>
-      <c r="G71" s="109">
+      <c r="G71" s="86">
         <f t="shared" ref="G71:G82" si="2">PRODUCT(C71:F71)</f>
         <v>6.6435029970537449E-2</v>
       </c>
@@ -16551,27 +16551,27 @@
       <c r="J71" s="40"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
-      <c r="B72" s="107" t="s">
+      <c r="B72" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="108">
+      <c r="C72" s="85">
         <v>1</v>
       </c>
-      <c r="D72" s="109">
+      <c r="D72" s="86">
         <f>5.5/3.281</f>
         <v>1.6763181956720512</v>
       </c>
-      <c r="E72" s="109">
+      <c r="E72" s="86">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="F72" s="109">
+      <c r="F72" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G72" s="109">
+      <c r="G72" s="86">
         <f t="shared" si="2"/>
         <v>1.9159381998690005E-2</v>
       </c>
@@ -16580,27 +16580,27 @@
       <c r="J72" s="40"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
-      <c r="B73" s="107" t="s">
+      <c r="B73" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="108">
+      <c r="C73" s="85">
         <v>1</v>
       </c>
-      <c r="D73" s="109">
+      <c r="D73" s="86">
         <f>1.2+2*(6.833/3.281)</f>
         <v>5.3651935385553182</v>
       </c>
-      <c r="E73" s="109">
+      <c r="E73" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="F73" s="109">
+      <c r="F73" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="G73" s="110">
+      <c r="G73" s="87">
         <f t="shared" si="2"/>
         <v>3.4610704546156465E-3</v>
       </c>
@@ -16609,27 +16609,27 @@
       <c r="J73" s="40"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
-      <c r="B74" s="107" t="s">
+      <c r="B74" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="108">
+      <c r="C74" s="85">
         <v>2</v>
       </c>
-      <c r="D74" s="109">
+      <c r="D74" s="86">
         <f>7/3.281</f>
         <v>2.1334958854007922</v>
       </c>
-      <c r="E74" s="109">
+      <c r="E74" s="86">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="F74" s="109">
+      <c r="F74" s="86">
         <f>2/12/3.281</f>
         <v>5.0797521080971242E-2</v>
       </c>
-      <c r="G74" s="109">
+      <c r="G74" s="86">
         <f t="shared" si="2"/>
         <v>3.2512890664443642E-2</v>
       </c>
@@ -16642,25 +16642,25 @@
         <v>5893.1590042756379</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="108">
+      <c r="B75" s="84"/>
+      <c r="C75" s="85">
         <v>2</v>
       </c>
-      <c r="D75" s="109">
+      <c r="D75" s="86">
         <f>7/3.281</f>
         <v>2.1334958854007922</v>
       </c>
-      <c r="E75" s="109">
+      <c r="E75" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="F75" s="109">
+      <c r="F75" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G75" s="109">
+      <c r="G75" s="86">
         <f t="shared" si="2"/>
         <v>2.4773613733955837E-2</v>
       </c>
@@ -16669,27 +16669,27 @@
       <c r="J75" s="40"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
-      <c r="B76" s="107" t="s">
+      <c r="B76" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="108">
+      <c r="C76" s="85">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="D76" s="109">
+      <c r="D76" s="86">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E76" s="109">
+      <c r="E76" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="F76" s="109">
+      <c r="F76" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="G76" s="109">
+      <c r="G76" s="86">
         <f t="shared" si="2"/>
         <v>2.2707415702151117E-2</v>
       </c>
@@ -16702,26 +16702,26 @@
         <v>442.39130434782612</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="108">
+      <c r="B77" s="84"/>
+      <c r="C77" s="85">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="D77" s="109">
+      <c r="D77" s="86">
         <f>3/3.281</f>
         <v>0.91435537945748246</v>
       </c>
-      <c r="E77" s="109">
+      <c r="E77" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="F77" s="109">
+      <c r="F77" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="G77" s="109">
+      <c r="G77" s="86">
         <f t="shared" si="2"/>
         <v>1.8875134273490163E-2</v>
       </c>
@@ -16738,26 +16738,26 @@
         <v>741.8304347826089</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="108">
+      <c r="B78" s="84"/>
+      <c r="C78" s="85">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="D78" s="109">
+      <c r="D78" s="86">
         <f>3/3.281</f>
         <v>0.91435537945748246</v>
       </c>
-      <c r="E78" s="109">
+      <c r="E78" s="86">
         <f>5/12/3.281</f>
         <v>0.12699380270242813</v>
       </c>
-      <c r="F78" s="109">
+      <c r="F78" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G78" s="109">
+      <c r="G78" s="86">
         <f t="shared" si="2"/>
         <v>1.7695438381397033E-2</v>
       </c>
@@ -16766,26 +16766,26 @@
       <c r="J78" s="40"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="108">
+      <c r="B79" s="84"/>
+      <c r="C79" s="85">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="D79" s="109">
+      <c r="D79" s="86">
         <f>0.96</f>
         <v>0.96</v>
       </c>
-      <c r="E79" s="109">
+      <c r="E79" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="F79" s="109">
+      <c r="F79" s="86">
         <f>5/12/3.281</f>
         <v>0.12699380270242813</v>
       </c>
-      <c r="G79" s="109">
+      <c r="G79" s="86">
         <f t="shared" si="2"/>
         <v>6.1929315551321239E-3</v>
       </c>
@@ -16794,26 +16794,26 @@
       <c r="J79" s="40"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="108">
+      <c r="B80" s="84"/>
+      <c r="C80" s="85">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="D80" s="109">
+      <c r="D80" s="86">
         <f>3/3.281</f>
         <v>0.91435537945748246</v>
       </c>
-      <c r="E80" s="109">
+      <c r="E80" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="F80" s="109">
+      <c r="F80" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="G80" s="110">
+      <c r="G80" s="87">
         <f t="shared" si="2"/>
         <v>4.7187835683725407E-3</v>
       </c>
@@ -16822,26 +16822,26 @@
       <c r="J80" s="40"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
-      <c r="B81" s="107"/>
-      <c r="C81" s="108">
+      <c r="B81" s="84"/>
+      <c r="C81" s="85">
         <f>1*2</f>
         <v>2</v>
       </c>
-      <c r="D81" s="109">
+      <c r="D81" s="86">
         <f>0.83</f>
         <v>0.83</v>
       </c>
-      <c r="E81" s="109">
+      <c r="E81" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="F81" s="109">
+      <c r="F81" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G81" s="110">
+      <c r="G81" s="87">
         <f t="shared" si="2"/>
         <v>3.2125832442247886E-3</v>
       </c>
@@ -16850,28 +16850,28 @@
       <c r="J81" s="40"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="108">
+      <c r="C82" s="85">
         <f>4*1</f>
         <v>4</v>
       </c>
-      <c r="D82" s="109">
+      <c r="D82" s="86">
         <f>24/12/3.281</f>
         <v>0.6095702529716549</v>
       </c>
-      <c r="E82" s="109">
+      <c r="E82" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="F82" s="109">
+      <c r="F82" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G82" s="110">
+      <c r="G82" s="87">
         <f t="shared" si="2"/>
         <v>1.8875134273490159E-2</v>
       </c>
@@ -16880,26 +16880,26 @@
       <c r="J82" s="40"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="108">
+      <c r="B83" s="84"/>
+      <c r="C83" s="85">
         <f>4*2</f>
         <v>8</v>
       </c>
-      <c r="D83" s="109">
+      <c r="D83" s="86">
         <f>1/3.281</f>
         <v>0.30478512648582745</v>
       </c>
-      <c r="E83" s="109">
+      <c r="E83" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="F83" s="109">
+      <c r="F83" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G83" s="110">
+      <c r="G83" s="87">
         <f t="shared" ref="G83:G86" si="3">PRODUCT(C83:F83)</f>
         <v>1.8875134273490159E-2</v>
       </c>
@@ -16908,26 +16908,26 @@
       <c r="J83" s="40"/>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
-      <c r="B84" s="107"/>
-      <c r="C84" s="108">
+      <c r="B84" s="84"/>
+      <c r="C84" s="85">
         <f>4*1</f>
         <v>4</v>
       </c>
-      <c r="D84" s="109">
+      <c r="D84" s="86">
         <f>23/12/3.281</f>
         <v>0.58417149243116939</v>
       </c>
-      <c r="E84" s="109">
+      <c r="E84" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="F84" s="109">
+      <c r="F84" s="86">
         <f>5/12/3.281</f>
         <v>0.12699380270242813</v>
       </c>
-      <c r="G84" s="110">
+      <c r="G84" s="87">
         <f t="shared" si="3"/>
         <v>2.2610837931785095E-2</v>
       </c>
@@ -16936,26 +16936,26 @@
       <c r="J84" s="40"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
-      <c r="B85" s="107"/>
-      <c r="C85" s="108">
+      <c r="B85" s="84"/>
+      <c r="C85" s="85">
         <f t="shared" ref="C85:C86" si="4">4*1</f>
         <v>4</v>
       </c>
-      <c r="D85" s="109">
+      <c r="D85" s="86">
         <f>26/3.281</f>
         <v>7.9244132886315146</v>
       </c>
-      <c r="E85" s="109">
+      <c r="E85" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="F85" s="109">
+      <c r="F85" s="86">
         <f>4/12/3.281</f>
         <v>0.10159504216194248</v>
       </c>
-      <c r="G85" s="110">
+      <c r="G85" s="87">
         <f t="shared" si="3"/>
         <v>8.1792248518457372E-2</v>
       </c>
@@ -16964,26 +16964,26 @@
       <c r="J85" s="40"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="108">
+      <c r="B86" s="84"/>
+      <c r="C86" s="85">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="D86" s="109">
+      <c r="D86" s="86">
         <f>28/12/3.281</f>
         <v>0.7111652951335975</v>
       </c>
-      <c r="E86" s="109">
+      <c r="E86" s="86">
         <f>0.12</f>
         <v>0.12</v>
       </c>
-      <c r="F86" s="109">
+      <c r="F86" s="86">
         <f>1/12/3.281</f>
         <v>2.5398760540485621E-2</v>
       </c>
-      <c r="G86" s="110">
+      <c r="G86" s="87">
         <f t="shared" si="3"/>
         <v>8.6701041771849729E-3</v>
       </c>
@@ -16992,18 +16992,18 @@
       <c r="J86" s="40"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
-      <c r="B87" s="107" t="s">
+      <c r="B87" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="108"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="111">
-        <f>SUM(G71:G77)</f>
-        <v>0.18792453679788387</v>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="88">
+        <f>SUM(G71:G86)</f>
+        <v>0.37056773272141807</v>
       </c>
       <c r="H87" s="55" t="s">
         <v>51</v>
@@ -17014,11 +17014,11 @@
       </c>
       <c r="J87" s="61">
         <f>G87*I87</f>
-        <v>57802.96964852517</v>
+        <v>113981.472415475</v>
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="56" t="s">
         <v>52</v>
@@ -17032,11 +17032,11 @@
       <c r="I88" s="60"/>
       <c r="J88" s="61">
         <f>0.13*G87*262808.07</f>
-        <v>6420.4510267944597</v>
+        <v>12660.464783302927</v>
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="56"/>
       <c r="C89" s="53"/>
@@ -17049,7 +17049,7 @@
       <c r="J89" s="61"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="43">
         <v>24</v>
       </c>
@@ -17066,24 +17066,24 @@
       <c r="J90" s="40"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C91" s="108">
+      <c r="C91" s="85">
         <v>2</v>
       </c>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109">
+      <c r="D91" s="86"/>
+      <c r="E91" s="86">
         <f>(1+6-3+3*3+2+1+1+2)/12/3.281+0.07</f>
         <v>0.55257645026922675</v>
       </c>
-      <c r="F91" s="109">
+      <c r="F91" s="86">
         <f>7/3.281</f>
         <v>2.1334958854007922</v>
       </c>
-      <c r="G91" s="109">
+      <c r="G91" s="86">
         <f>PRODUCT(C91:F91)</f>
         <v>2.3578391660375413</v>
       </c>
@@ -17092,22 +17092,22 @@
       <c r="J91" s="40"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="56"/>
-      <c r="C92" s="108">
+      <c r="C92" s="85">
         <v>1</v>
       </c>
-      <c r="D92" s="109">
+      <c r="D92" s="86">
         <f>3.33/3.281</f>
         <v>1.0149344711978054</v>
       </c>
-      <c r="E92" s="109">
+      <c r="E92" s="86">
         <f>(1+1+2)/12/3.281+0.07</f>
         <v>0.17159504216194249</v>
       </c>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109">
+      <c r="F92" s="86"/>
+      <c r="G92" s="86">
         <f>PRODUCT(C92:F92)</f>
         <v>0.17415772337679622</v>
       </c>
@@ -17116,22 +17116,22 @@
       <c r="J92" s="40"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="56"/>
-      <c r="C93" s="108">
+      <c r="C93" s="85">
         <v>1</v>
       </c>
-      <c r="D93" s="109">
+      <c r="D93" s="86">
         <f>5.5/3.281</f>
         <v>1.6763181956720512</v>
       </c>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109">
+      <c r="E93" s="86"/>
+      <c r="F93" s="86">
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G93" s="109">
+      <c r="G93" s="86">
         <f>PRODUCT(C93:F93)</f>
         <v>0.12772921332460005</v>
       </c>
@@ -17140,16 +17140,16 @@
       <c r="J93" s="40"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="108"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="109"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="111">
+      <c r="C94" s="85"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="88">
         <f>SUM(G91:G93)</f>
         <v>2.6597261027389378</v>
       </c>
@@ -17166,7 +17166,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="62"/>
       <c r="C95" s="53"/>
@@ -17179,7 +17179,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="43">
         <v>25</v>
       </c>
@@ -17196,7 +17196,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="56" t="s">
         <v>72</v>
@@ -17222,7 +17222,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="56"/>
       <c r="C98" s="53">
@@ -17247,14 +17247,14 @@
       <c r="J98" s="40"/>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="56"/>
       <c r="C99" s="53">
         <f t="shared" ref="C99:C102" si="5">1*2</f>
         <v>2</v>
       </c>
-      <c r="D99" s="109">
+      <c r="D99" s="86">
         <f>3/3.281</f>
         <v>0.91435537945748246</v>
       </c>
@@ -17272,14 +17272,14 @@
       <c r="J99" s="40"/>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="56"/>
       <c r="C100" s="53">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D100" s="109">
+      <c r="D100" s="86">
         <f>0.96</f>
         <v>0.96</v>
       </c>
@@ -17297,14 +17297,14 @@
       <c r="J100" s="40"/>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="56"/>
       <c r="C101" s="53">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D101" s="109">
+      <c r="D101" s="86">
         <f>3/3.281</f>
         <v>0.91435537945748246</v>
       </c>
@@ -17322,14 +17322,14 @@
       <c r="J101" s="40"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="56"/>
       <c r="C102" s="53">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D102" s="109">
+      <c r="D102" s="86">
         <f>0.83</f>
         <v>0.83</v>
       </c>
@@ -17347,16 +17347,16 @@
       <c r="J102" s="40"/>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="108">
+      <c r="C103" s="85">
         <f>4*1</f>
         <v>4</v>
       </c>
-      <c r="D103" s="109">
+      <c r="D103" s="86">
         <f>24/12/3.281</f>
         <v>0.6095702529716549</v>
       </c>
@@ -17374,14 +17374,14 @@
       <c r="J103" s="40"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="56"/>
-      <c r="C104" s="108">
+      <c r="C104" s="85">
         <f>4*2</f>
         <v>8</v>
       </c>
-      <c r="D104" s="109">
+      <c r="D104" s="86">
         <f>1/3.281</f>
         <v>0.30478512648582745</v>
       </c>
@@ -17399,14 +17399,14 @@
       <c r="J104" s="40"/>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="56"/>
-      <c r="C105" s="108">
+      <c r="C105" s="85">
         <f>4*1</f>
         <v>4</v>
       </c>
-      <c r="D105" s="109">
+      <c r="D105" s="86">
         <f>23/12/3.281</f>
         <v>0.58417149243116939</v>
       </c>
@@ -17424,14 +17424,14 @@
       <c r="J105" s="40"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="56"/>
-      <c r="C106" s="108">
+      <c r="C106" s="85">
         <f t="shared" ref="C106:C107" si="8">4*1</f>
         <v>4</v>
       </c>
-      <c r="D106" s="109">
+      <c r="D106" s="86">
         <f>26/3.281</f>
         <v>7.9244132886315146</v>
       </c>
@@ -17449,14 +17449,14 @@
       <c r="J106" s="40"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="56"/>
-      <c r="C107" s="108">
+      <c r="C107" s="85">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="D107" s="109">
+      <c r="D107" s="86">
         <f>28/12/3.281</f>
         <v>0.7111652951335975</v>
       </c>
@@ -17474,7 +17474,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
       <c r="B108" s="56" t="s">
         <v>38</v>
@@ -17500,7 +17500,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="62"/>
       <c r="C109" s="53"/>
@@ -17513,7 +17513,7 @@
       <c r="J109" s="40"/>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="43">
         <v>26</v>
       </c>
@@ -17530,7 +17530,7 @@
       <c r="J110" s="40"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="56" t="s">
         <v>74</v>
@@ -17556,7 +17556,7 @@
       <c r="J111" s="40"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="70" t="s">
         <v>96</v>
@@ -17582,7 +17582,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
       <c r="B113" s="56" t="s">
         <v>38</v>
@@ -17608,7 +17608,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="56" t="s">
         <v>52</v>
@@ -17626,7 +17626,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="56"/>
       <c r="C115" s="53"/>
@@ -17640,7 +17640,7 @@
       <c r="K115" s="5"/>
       <c r="M115" s="63"/>
     </row>
-    <row r="116" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="26">
         <v>37</v>
       </c>
@@ -17676,7 +17676,7 @@
       <c r="R116" s="31"/>
       <c r="S116" s="31"/>
     </row>
-    <row r="117" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -17689,7 +17689,7 @@
       <c r="J117" s="40"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A118" s="26">
         <v>38</v>
       </c>
@@ -17726,7 +17726,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="18"/>
     </row>
-    <row r="119" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="45"/>
       <c r="C119" s="46"/>
@@ -17739,7 +17739,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="50" t="s">
         <v>15</v>
@@ -17753,19 +17753,19 @@
       <c r="I120" s="44"/>
       <c r="J120" s="44">
         <f>SUM(J9:J118)</f>
-        <v>486243.89521508873</v>
+        <v>548662.41173854703</v>
       </c>
       <c r="K120" s="16"/>
     </row>
-    <row r="122" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="95">
+      <c r="C122" s="104">
         <f>J120</f>
-        <v>486243.89521508873</v>
-      </c>
-      <c r="D122" s="96"/>
+        <v>548662.41173854703</v>
+      </c>
+      <c r="D122" s="105"/>
       <c r="E122" s="14">
         <v>100</v>
       </c>
@@ -17776,78 +17776,72 @@
       <c r="J122" s="21"/>
       <c r="K122" s="22"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B123" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="102">
+      <c r="C123" s="111">
         <v>500000</v>
       </c>
-      <c r="D123" s="103"/>
+      <c r="D123" s="112"/>
       <c r="E123" s="14"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B124" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="102">
+      <c r="C124" s="111">
         <f>C123-C126-C127</f>
         <v>475000</v>
       </c>
-      <c r="D124" s="103"/>
+      <c r="D124" s="112"/>
       <c r="E124" s="14">
         <f>C124/C122*100</f>
-        <v>97.687601772333807</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+        <v>86.574182928782591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B125" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C125" s="94">
+      <c r="C125" s="103">
         <f>C122-C124</f>
-        <v>11243.895215088734</v>
-      </c>
-      <c r="D125" s="94"/>
+        <v>73662.411738547031</v>
+      </c>
+      <c r="D125" s="103"/>
       <c r="E125" s="14">
         <f>100-E124</f>
-        <v>2.3123982276661934</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+        <v>13.425817071217409</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B126" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="95">
+      <c r="C126" s="104">
         <f>C123*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D126" s="96"/>
+      <c r="D126" s="105"/>
       <c r="E126" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B127" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="95">
+      <c r="C127" s="104">
         <f>C123*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D127" s="96"/>
+      <c r="D127" s="105"/>
       <c r="E127" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="A7:F7"/>
@@ -17856,6 +17850,12 @@
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="C125:D125"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
